--- a/Oceny.xlsx
+++ b/Oceny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Studenci\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD591F-9F9C-4CF3-9995-479322916855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31B742-DDC0-4C56-964D-79B0E6CC8DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,11 +690,11 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
       </c>
       <c r="H18">
         <f>SUM(Tabela1[Kolokwium 1.5])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1"/>
     </row>

--- a/Oceny.xlsx
+++ b/Oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Studenci\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31B742-DDC0-4C56-964D-79B0E6CC8DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271554AF-0ED5-4EE8-A527-A11896247EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Indeks</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Kolokwium 1.6</t>
+  </si>
+  <si>
+    <t>Bazy Danych</t>
+  </si>
+  <si>
+    <t>Sieci</t>
   </si>
 </sst>
 </file>
@@ -127,9 +133,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A56F56-CDE7-4219-8361-BAA2B4F0917D}" name="Tabela1" displayName="Tabela1" ref="B2:J18" totalsRowCount="1">
-  <autoFilter ref="B2:J17" xr:uid="{8C91AFCB-DE5A-4412-8419-3485F3499192}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A56F56-CDE7-4219-8361-BAA2B4F0917D}" name="Tabela1" displayName="Tabela1" ref="B2:L18" totalsRowCount="1">
+  <autoFilter ref="B2:L17" xr:uid="{8C91AFCB-DE5A-4412-8419-3485F3499192}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B632EEEC-C64F-4E69-9B2F-EA75708DE5A6}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{1A6EE3C8-F621-43A9-A37A-02E3340EFFC6}" name="CPP"/>
     <tableColumn id="3" xr3:uid="{51C2DE6F-62E2-4C00-BC42-F53009280902}" name="Kolokwium 1.1" totalsRowFunction="custom">
@@ -148,8 +154,10 @@
       <totalsRowFormula>SUM(Tabela1[Kolokwium 1.5])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4707A918-E14B-45A3-9336-FE1D76483BE0}" name="Kolokwium 1.6"/>
-    <tableColumn id="8" xr3:uid="{75D9FDA7-596C-4108-A070-A7C60DF2A74A}" name="Suma" dataDxfId="1" totalsRowDxfId="0">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{C039B485-2632-4F45-8F0D-33F039AD16E1}" name="Bazy Danych"/>
+    <tableColumn id="11" xr3:uid="{C6B125BE-B864-4A33-B448-8950AFC705DF}" name="Sieci"/>
+    <tableColumn id="8" xr3:uid="{75D9FDA7-596C-4108-A070-A7C60DF2A74A}" name="Suma" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -419,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +439,7 @@
     <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -457,10 +465,16 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>163894</v>
       </c>
@@ -483,11 +497,17 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>163895</v>
       </c>
@@ -510,11 +530,17 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>163896</v>
       </c>
@@ -537,11 +563,17 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>163897</v>
       </c>
@@ -563,12 +595,15 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>163898</v>
       </c>
@@ -591,11 +626,17 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>0.75</v>
+      </c>
+      <c r="L7">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>163899</v>
       </c>
@@ -615,11 +656,17 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>163900</v>
       </c>
@@ -642,11 +689,17 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>163901</v>
       </c>
@@ -666,11 +719,17 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>163903</v>
       </c>
@@ -693,11 +752,17 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>163904</v>
       </c>
@@ -720,20 +785,26 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>163905</v>
       </c>
-      <c r="J13">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>163906</v>
       </c>
@@ -756,11 +827,17 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>0.75</v>
+      </c>
+      <c r="L14">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>163907</v>
       </c>
@@ -783,11 +860,17 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>0.75</v>
+      </c>
+      <c r="L15">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>163908</v>
       </c>
@@ -806,12 +889,15 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>163917</v>
       </c>
@@ -830,12 +916,15 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 1.6]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>SUM(Tabela1[Kolokwium 1.1])</f>
         <v>5</v>
@@ -856,7 +945,7 @@
         <f>SUM(Tabela1[Kolokwium 1.5])</f>
         <v>12</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Oceny.xlsx
+++ b/Oceny.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Studenci\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271554AF-0ED5-4EE8-A527-A11896247EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A58B4E-9B0B-401A-9BF6-E3914D4B710D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Indeks</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Sieci</t>
+  </si>
+  <si>
+    <t>Pkt</t>
   </si>
 </sst>
 </file>
@@ -133,9 +136,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A56F56-CDE7-4219-8361-BAA2B4F0917D}" name="Tabela1" displayName="Tabela1" ref="B2:L18" totalsRowCount="1">
-  <autoFilter ref="B2:L17" xr:uid="{8C91AFCB-DE5A-4412-8419-3485F3499192}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A56F56-CDE7-4219-8361-BAA2B4F0917D}" name="Tabela1" displayName="Tabela1" ref="B2:M18" totalsRowCount="1">
+  <autoFilter ref="B2:M17" xr:uid="{8C91AFCB-DE5A-4412-8419-3485F3499192}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B632EEEC-C64F-4E69-9B2F-EA75708DE5A6}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{1A6EE3C8-F621-43A9-A37A-02E3340EFFC6}" name="CPP"/>
     <tableColumn id="3" xr3:uid="{51C2DE6F-62E2-4C00-BC42-F53009280902}" name="Kolokwium 1.1" totalsRowFunction="custom">
@@ -156,8 +159,9 @@
     <tableColumn id="9" xr3:uid="{4707A918-E14B-45A3-9336-FE1D76483BE0}" name="Kolokwium 1.6"/>
     <tableColumn id="10" xr3:uid="{C039B485-2632-4F45-8F0D-33F039AD16E1}" name="Bazy Danych"/>
     <tableColumn id="11" xr3:uid="{C6B125BE-B864-4A33-B448-8950AFC705DF}" name="Sieci"/>
+    <tableColumn id="12" xr3:uid="{4BEA7D43-AA7E-40B0-BC29-C107E3ACE9CA}" name="Pkt"/>
     <tableColumn id="8" xr3:uid="{75D9FDA7-596C-4108-A070-A7C60DF2A74A}" name="Suma" dataDxfId="0" totalsRowDxfId="1">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -427,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +443,7 @@
     <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -471,10 +475,13 @@
         <v>10</v>
       </c>
       <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>163894</v>
       </c>
@@ -503,11 +510,14 @@
         <v>0.75</v>
       </c>
       <c r="L3">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>163895</v>
       </c>
@@ -535,12 +545,12 @@
       <c r="K4">
         <v>0.5</v>
       </c>
-      <c r="L4">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+      <c r="M4">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>163896</v>
       </c>
@@ -568,12 +578,12 @@
       <c r="K5">
         <v>0.5</v>
       </c>
-      <c r="L5">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+      <c r="M5">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>163897</v>
       </c>
@@ -598,12 +608,12 @@
       <c r="K6">
         <v>0.5</v>
       </c>
-      <c r="L6">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+      <c r="M6">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>163898</v>
       </c>
@@ -632,11 +642,14 @@
         <v>0.75</v>
       </c>
       <c r="L7">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>163899</v>
       </c>
@@ -662,11 +675,14 @@
         <v>0.5</v>
       </c>
       <c r="L8">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>163900</v>
       </c>
@@ -694,12 +710,12 @@
       <c r="K9">
         <v>0.5</v>
       </c>
-      <c r="L9">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+      <c r="M9">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>163901</v>
       </c>
@@ -725,11 +741,14 @@
         <v>0.5</v>
       </c>
       <c r="L10">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>163903</v>
       </c>
@@ -757,12 +776,12 @@
       <c r="K11">
         <v>0.5</v>
       </c>
-      <c r="L11">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+      <c r="M11">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>163904</v>
       </c>
@@ -790,21 +809,21 @@
       <c r="K12">
         <v>0.5</v>
       </c>
-      <c r="L12">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+      <c r="M12">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>163905</v>
       </c>
-      <c r="L13">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>163906</v>
       </c>
@@ -833,11 +852,14 @@
         <v>0.75</v>
       </c>
       <c r="L14">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="M14">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>163907</v>
       </c>
@@ -866,11 +888,14 @@
         <v>0.75</v>
       </c>
       <c r="L15">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="M15">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>163908</v>
       </c>
@@ -892,12 +917,12 @@
       <c r="K16">
         <v>0.5</v>
       </c>
-      <c r="L16">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+      <c r="M16">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>163917</v>
       </c>
@@ -919,12 +944,12 @@
       <c r="K17">
         <v>0.5</v>
       </c>
-      <c r="L17">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Sieci]])</f>
+      <c r="M17">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>SUM(Tabela1[Kolokwium 1.1])</f>
         <v>5</v>
@@ -945,7 +970,7 @@
         <f>SUM(Tabela1[Kolokwium 1.5])</f>
         <v>12</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Oceny.xlsx
+++ b/Oceny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Studenci\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A58B4E-9B0B-401A-9BF6-E3914D4B710D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EFF2B5-0ADA-45E8-9029-2A73E7BCC31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Indeks</t>
   </si>
@@ -68,12 +68,48 @@
   <si>
     <t>Pkt</t>
   </si>
+  <si>
+    <t>Kolokwium 2.1</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.2</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.3</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.5</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.4</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.6</t>
+  </si>
+  <si>
+    <t>Komentarze:</t>
+  </si>
+  <si>
+    <t>Rozwiązałeś inne zadanie ze schematami blokowymi niż było w poleceniu.</t>
+  </si>
+  <si>
+    <t>Suma Pkt</t>
+  </si>
+  <si>
+    <t>Ocena</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>Liczba</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,16 +123,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,18 +159,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -135,10 +213,915 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$O$24:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$P$24:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60AF-4DD4-92D4-1CF0CE385E9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="333842848"/>
+        <c:axId val="439786384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="333842848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439786384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439786384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333842848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9122AF1F-7261-480D-A5FE-6650FCD3F0C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A56F56-CDE7-4219-8361-BAA2B4F0917D}" name="Tabela1" displayName="Tabela1" ref="B2:M18" totalsRowCount="1">
-  <autoFilter ref="B2:M17" xr:uid="{8C91AFCB-DE5A-4412-8419-3485F3499192}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A56F56-CDE7-4219-8361-BAA2B4F0917D}" name="Tabela1" displayName="Tabela1" ref="B2:U18" totalsRowCount="1">
+  <autoFilter ref="B2:U17" xr:uid="{8C91AFCB-DE5A-4412-8419-3485F3499192}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{B632EEEC-C64F-4E69-9B2F-EA75708DE5A6}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{1A6EE3C8-F621-43A9-A37A-02E3340EFFC6}" name="CPP"/>
     <tableColumn id="3" xr3:uid="{51C2DE6F-62E2-4C00-BC42-F53009280902}" name="Kolokwium 1.1" totalsRowFunction="custom">
@@ -160,8 +1143,43 @@
     <tableColumn id="10" xr3:uid="{C039B485-2632-4F45-8F0D-33F039AD16E1}" name="Bazy Danych"/>
     <tableColumn id="11" xr3:uid="{C6B125BE-B864-4A33-B448-8950AFC705DF}" name="Sieci"/>
     <tableColumn id="12" xr3:uid="{4BEA7D43-AA7E-40B0-BC29-C107E3ACE9CA}" name="Pkt"/>
-    <tableColumn id="8" xr3:uid="{75D9FDA7-596C-4108-A070-A7C60DF2A74A}" name="Suma" dataDxfId="0" totalsRowDxfId="1">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{DDB104DD-67C8-4FA1-9D31-4AB65932D13E}" name="Kolokwium 2.1" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela1[Kolokwium 2.1])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{E397D70A-C6ED-4966-80E7-05075BF06659}" name="Kolokwium 2.2" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela1[Kolokwium 2.2])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{CFA160F8-C97A-41E7-962B-A5BB3A9AE2AD}" name="Kolokwium 2.3" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela1[Kolokwium 2.3])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{C0DCFECE-FF46-4C66-B133-310F0F185CB2}" name="Kolokwium 2.4" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela1[Kolokwium 2.4])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{2F943513-E4FB-4903-9293-FCA5BF15DBA3}" name="Kolokwium 2.5" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela1[Kolokwium 2.5])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{4D28542E-B69A-4DDE-AF5A-3D6D4774A253}" name="Kolokwium 2.6"/>
+    <tableColumn id="8" xr3:uid="{75D9FDA7-596C-4108-A070-A7C60DF2A74A}" name="Suma" dataDxfId="3" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{7FE9B566-E712-4A23-B90B-209863874255}" name="Suma Pkt" dataDxfId="2">
+      <calculatedColumnFormula>INT(Tabela1[[#This Row],[Suma]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{BE01F8BB-E378-41DD-A4E7-0430391606C4}" name="Ocena" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C5881FD2-9EBF-47B9-AE0D-5B82211E6A8A}" name="Tabela2" displayName="Tabela2" ref="O23:P29" totalsRowShown="0">
+  <autoFilter ref="O23:P29" xr:uid="{72AD485E-01F4-418F-B0FE-F21B6B1308A2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{22C5458D-FB19-46A9-9DDC-214112AA8D0A}" name="Histogram"/>
+    <tableColumn id="2" xr3:uid="{EDD64176-20C0-4CB9-B69F-A3169385FDCA}" name="Liczba">
+      <calculatedColumnFormula>COUNTIF(Tabela1[Ocena],O24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -431,19 +1449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M18"/>
+  <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -478,10 +1497,34 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>163894</v>
       </c>
@@ -513,11 +1556,31 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0.25</v>
+      </c>
+      <c r="S3">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>9</v>
+      </c>
+      <c r="U3">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>163895</v>
       </c>
@@ -546,11 +1609,34 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>0.25</v>
+      </c>
+      <c r="S4">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>9.25</v>
+      </c>
+      <c r="T4">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>163896</v>
       </c>
@@ -579,11 +1665,31 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0.25</v>
+      </c>
+      <c r="S5">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>7.25</v>
+      </c>
+      <c r="T5">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>163897</v>
       </c>
@@ -609,11 +1715,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0.25</v>
+      </c>
+      <c r="S6">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>7.25</v>
+      </c>
+      <c r="T6">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>163898</v>
       </c>
@@ -645,11 +1768,37 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>1.5</v>
+      </c>
+      <c r="R7">
+        <v>0.25</v>
+      </c>
+      <c r="S7">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>14</v>
+      </c>
+      <c r="U7">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>163899</v>
       </c>
@@ -678,11 +1827,31 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0.25</v>
+      </c>
+      <c r="S8">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>6.75</v>
+      </c>
+      <c r="T8">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>163900</v>
       </c>
@@ -711,11 +1880,31 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0.25</v>
+      </c>
+      <c r="S9">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>8.25</v>
+      </c>
+      <c r="T9">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>163901</v>
       </c>
@@ -744,11 +1933,31 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0.25</v>
+      </c>
+      <c r="S10">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>6.75</v>
+      </c>
+      <c r="T10">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>163903</v>
       </c>
@@ -777,11 +1986,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0.25</v>
+      </c>
+      <c r="S11">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>7.25</v>
+      </c>
+      <c r="T11">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>163904</v>
       </c>
@@ -810,20 +2036,48 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0.25</v>
+      </c>
+      <c r="S12">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>8.75</v>
+      </c>
+      <c r="T12">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>8</v>
+      </c>
+      <c r="U12">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>163905</v>
       </c>
-      <c r="M13">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>163906</v>
       </c>
@@ -855,11 +2109,28 @@
         <v>0.25</v>
       </c>
       <c r="M14">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0.25</v>
+      </c>
+      <c r="S14">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>4.75</v>
+      </c>
+      <c r="T14">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>163907</v>
       </c>
@@ -891,11 +2162,28 @@
         <v>0.25</v>
       </c>
       <c r="M15">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0.25</v>
+      </c>
+      <c r="S15">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>9.25</v>
+      </c>
+      <c r="T15">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>9</v>
+      </c>
+      <c r="U15">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>163908</v>
       </c>
@@ -918,11 +2206,31 @@
         <v>0.5</v>
       </c>
       <c r="M16">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0.25</v>
+      </c>
+      <c r="S16">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>5.75</v>
+      </c>
+      <c r="T16">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>163917</v>
       </c>
@@ -944,12 +2252,32 @@
       <c r="K17">
         <v>0.5</v>
       </c>
-      <c r="M17">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Pkt]])</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>0.25</v>
+      </c>
+      <c r="S17">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+        <v>5.25</v>
+      </c>
+      <c r="T17">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>SUM(Tabela1[Kolokwium 1.1])</f>
         <v>5</v>
@@ -970,14 +2298,111 @@
         <f>SUM(Tabela1[Kolokwium 1.5])</f>
         <v>12</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18">
+        <f>SUM(Tabela1[Kolokwium 2.1])</f>
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <f>SUM(Tabela1[Kolokwium 2.2])</f>
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f>SUM(Tabela1[Kolokwium 2.3])</f>
+        <v>13</v>
+      </c>
+      <c r="P18">
+        <f>SUM(Tabela1[Kolokwium 2.4])</f>
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <f>SUM(Tabela1[Kolokwium 2.5])</f>
+        <v>3.5</v>
+      </c>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="P20" s="2">
+        <v>163894</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <f>COUNTIF(Tabela1[Ocena],O24)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <f>COUNTIF(Tabela1[Ocena],O25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <v>3.5</v>
+      </c>
+      <c r="P26">
+        <f>COUNTIF(Tabela1[Ocena],O26)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <f>COUNTIF(Tabela1[Ocena],O27)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>4.5</v>
+      </c>
+      <c r="P28">
+        <f>COUNTIF(Tabela1[Ocena],O28)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <f>COUNTIF(Tabela1[Ocena],O29)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Oceny.xlsx
+++ b/Oceny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Studenci\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EFF2B5-0ADA-45E8-9029-2A73E7BCC31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF695E-72C2-4C95-980C-4DCCD86705D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Indeks</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Liczba</t>
+  </si>
+  <si>
+    <t>Poprawka</t>
   </si>
 </sst>
 </file>
@@ -336,13 +339,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -1081,13 +1084,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -1119,9 +1122,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A56F56-CDE7-4219-8361-BAA2B4F0917D}" name="Tabela1" displayName="Tabela1" ref="B2:U18" totalsRowCount="1">
-  <autoFilter ref="B2:U17" xr:uid="{8C91AFCB-DE5A-4412-8419-3485F3499192}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A56F56-CDE7-4219-8361-BAA2B4F0917D}" name="Tabela1" displayName="Tabela1" ref="B2:V18" totalsRowCount="1">
+  <autoFilter ref="B2:V17" xr:uid="{8C91AFCB-DE5A-4412-8419-3485F3499192}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{B632EEEC-C64F-4E69-9B2F-EA75708DE5A6}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{1A6EE3C8-F621-43A9-A37A-02E3340EFFC6}" name="CPP"/>
     <tableColumn id="3" xr3:uid="{51C2DE6F-62E2-4C00-BC42-F53009280902}" name="Kolokwium 1.1" totalsRowFunction="custom">
@@ -1159,13 +1162,14 @@
       <totalsRowFormula>SUM(Tabela1[Kolokwium 2.5])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{4D28542E-B69A-4DDE-AF5A-3D6D4774A253}" name="Kolokwium 2.6"/>
-    <tableColumn id="8" xr3:uid="{75D9FDA7-596C-4108-A070-A7C60DF2A74A}" name="Suma" dataDxfId="3" totalsRowDxfId="1">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</calculatedColumnFormula>
+    <tableColumn id="22" xr3:uid="{69918B0E-DE95-4243-B8B8-E81B183EC7F3}" name="Poprawka"/>
+    <tableColumn id="8" xr3:uid="{75D9FDA7-596C-4108-A070-A7C60DF2A74A}" name="Suma" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{7FE9B566-E712-4A23-B90B-209863874255}" name="Suma Pkt" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{7FE9B566-E712-4A23-B90B-209863874255}" name="Suma Pkt" dataDxfId="3">
       <calculatedColumnFormula>INT(Tabela1[[#This Row],[Suma]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{BE01F8BB-E378-41DD-A4E7-0430391606C4}" name="Ocena" dataDxfId="0">
+    <tableColumn id="20" xr3:uid="{BE01F8BB-E378-41DD-A4E7-0430391606C4}" name="Ocena" dataDxfId="2">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1449,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1466,7 @@
     <col min="15" max="15" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1515,16 +1519,19 @@
         <v>17</v>
       </c>
       <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
         <v>2</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>163894</v>
       </c>
@@ -1567,20 +1574,20 @@
       <c r="R3">
         <v>0.25</v>
       </c>
-      <c r="S3">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T3">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>9</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>9</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>163895</v>
       </c>
@@ -1623,20 +1630,20 @@
       <c r="R4">
         <v>0.25</v>
       </c>
-      <c r="S4">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T4">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>9.25</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>9</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>163896</v>
       </c>
@@ -1676,20 +1683,20 @@
       <c r="R5">
         <v>0.25</v>
       </c>
-      <c r="S5">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T5">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>7.25</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>7</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>163897</v>
       </c>
@@ -1723,20 +1730,20 @@
       <c r="R6">
         <v>0.25</v>
       </c>
-      <c r="S6">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T6">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>7.25</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>7</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>163898</v>
       </c>
@@ -1785,20 +1792,20 @@
       <c r="R7">
         <v>0.25</v>
       </c>
-      <c r="S7">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T7">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>14</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>14</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>163899</v>
       </c>
@@ -1838,20 +1845,20 @@
       <c r="R8">
         <v>0.25</v>
       </c>
-      <c r="S8">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T8">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>6.75</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>6</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>163900</v>
       </c>
@@ -1891,20 +1898,20 @@
       <c r="R9">
         <v>0.25</v>
       </c>
-      <c r="S9">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T9">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>8.25</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>8</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>163901</v>
       </c>
@@ -1944,20 +1951,20 @@
       <c r="R10">
         <v>0.25</v>
       </c>
-      <c r="S10">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T10">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>6.75</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>6</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>163903</v>
       </c>
@@ -1994,20 +2001,20 @@
       <c r="R11">
         <v>0.25</v>
       </c>
-      <c r="S11">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T11">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>7.25</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>7</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>163904</v>
       </c>
@@ -2047,37 +2054,37 @@
       <c r="R12">
         <v>0.25</v>
       </c>
-      <c r="S12">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
+      <c r="T12">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
         <v>8.75</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>8</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>163905</v>
       </c>
-      <c r="S13">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
-        <v>0</v>
-      </c>
       <c r="T13">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>163906</v>
       </c>
@@ -2118,166 +2125,169 @@
         <v>0.25</v>
       </c>
       <c r="S14">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="T14">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
+        <v>7.25</v>
+      </c>
+      <c r="U14">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
-        <v>4</v>
-      </c>
-      <c r="U14">
+        <v>7</v>
+      </c>
+      <c r="V14">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>163907</v>
+      </c>
+      <c r="C15">
+        <v>1.5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>0.75</v>
+      </c>
+      <c r="L15">
+        <v>0.25</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0.25</v>
+      </c>
+      <c r="T15">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
+        <v>9.25</v>
+      </c>
+      <c r="U15">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>9</v>
+      </c>
+      <c r="V15">
+        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>163908</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0.25</v>
+      </c>
+      <c r="T16">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
+        <v>5.75</v>
+      </c>
+      <c r="U16">
+        <f>INT(Tabela1[[#This Row],[Suma]])</f>
+        <v>5</v>
+      </c>
+      <c r="V16">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>163907</v>
-      </c>
-      <c r="C15">
-        <v>1.5</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0.5</v>
-      </c>
-      <c r="K15">
-        <v>0.75</v>
-      </c>
-      <c r="L15">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>163917</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
         <v>0.25</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>0.25</v>
-      </c>
-      <c r="S15">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
-        <v>9.25</v>
-      </c>
-      <c r="T15">
-        <f>INT(Tabela1[[#This Row],[Suma]])</f>
-        <v>9</v>
-      </c>
-      <c r="U15">
-        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>163908</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>0.25</v>
-      </c>
-      <c r="S16">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
-        <v>5.75</v>
-      </c>
-      <c r="T16">
+      <c r="T17">
+        <f>SUM(Tabela1[[#This Row],[CPP]:[Poprawka]])</f>
+        <v>5.25</v>
+      </c>
+      <c r="U17">
         <f>INT(Tabela1[[#This Row],[Suma]])</f>
         <v>5</v>
       </c>
-      <c r="U16">
+      <c r="V17">
         <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>163917</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0.5</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0.5</v>
-      </c>
-      <c r="R17">
-        <v>0.25</v>
-      </c>
-      <c r="S17">
-        <f>SUM(Tabela1[[#This Row],[CPP]:[Kolokwium 2.6]])</f>
-        <v>5.25</v>
-      </c>
-      <c r="T17">
-        <f>INT(Tabela1[[#This Row],[Suma]])</f>
-        <v>5</v>
-      </c>
-      <c r="U17">
-        <f>IF(Tabela1[[#This Row],[Suma Pkt]]&gt;=10,5,IF(Tabela1[[#This Row],[Suma Pkt]]=9,4.5,IF(Tabela1[[#This Row],[Suma Pkt]]=8,4,IF(Tabela1[[#This Row],[Suma Pkt]]=7,3.5,IF(Tabela1[[#This Row],[Suma Pkt]]=6,3,2)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>SUM(Tabela1[Kolokwium 1.1])</f>
         <v>5</v>
@@ -2318,14 +2328,14 @@
         <f>SUM(Tabela1[Kolokwium 2.5])</f>
         <v>3.5</v>
       </c>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="P20" s="2">
         <v>163894</v>
       </c>
@@ -2333,7 +2343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O23" t="s">
         <v>22</v>
       </c>
@@ -2341,16 +2351,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O24">
         <v>2</v>
       </c>
       <c r="P24">
         <f>COUNTIF(Tabela1[Ocena],O24)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O25">
         <v>3</v>
       </c>
@@ -2359,16 +2369,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
         <f>COUNTIF(Tabela1[Ocena],O26)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O27">
         <v>4</v>
       </c>
@@ -2377,7 +2387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O28">
         <v>4.5</v>
       </c>
@@ -2386,7 +2396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O29">
         <v>5</v>
       </c>
